--- a/data/trans_orig/CUI_GLOB-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/CUI_GLOB-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>44923</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37451</v>
+        <v>37746</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51244</v>
+        <v>51011</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7345570833612636</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.612376641594966</v>
+        <v>0.6172041896449655</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.837901805751358</v>
+        <v>0.8340982269375032</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>139</v>
@@ -762,19 +762,19 @@
         <v>59086</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>52652</v>
+        <v>53162</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>65052</v>
+        <v>65432</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6810800073629893</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6069075553066053</v>
+        <v>0.6127879365970461</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7498389455296722</v>
+        <v>0.754226475558471</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>201</v>
@@ -783,19 +783,19 @@
         <v>104010</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>94751</v>
+        <v>94436</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>112834</v>
+        <v>112783</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7031914253490967</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6405975848141745</v>
+        <v>0.6384654346084375</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7628538818799827</v>
+        <v>0.7625041473661609</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>7879</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3731</v>
+        <v>4274</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13360</v>
+        <v>13560</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1288319598451614</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0610126168134583</v>
+        <v>0.06988149448284892</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.218458787182134</v>
+        <v>0.2217162420213738</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -833,19 +833,19 @@
         <v>8194</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4946</v>
+        <v>4904</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12999</v>
+        <v>13293</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09444671281092253</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05701425896367435</v>
+        <v>0.05652840373010448</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1498346084566715</v>
+        <v>0.1532231952271547</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -854,19 +854,19 @@
         <v>16073</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10733</v>
+        <v>10892</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23347</v>
+        <v>23169</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1086641425326626</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07256639850247824</v>
+        <v>0.07364046503239013</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1578430753827489</v>
+        <v>0.1566421977635322</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>8355</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4138</v>
+        <v>4139</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15526</v>
+        <v>14239</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1366109567935751</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0676585638563572</v>
+        <v>0.06767420576369236</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2538630833836708</v>
+        <v>0.232832903750781</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>35</v>
@@ -904,19 +904,19 @@
         <v>19474</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14538</v>
+        <v>14210</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25603</v>
+        <v>25847</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2244732798260881</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1675753200837175</v>
+        <v>0.1637994767383546</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2951244121159478</v>
+        <v>0.2979313132476037</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>44</v>
@@ -925,19 +925,19 @@
         <v>27829</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20879</v>
+        <v>21034</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>36689</v>
+        <v>36143</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1881444321182406</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1411622385751274</v>
+        <v>0.1422079461519231</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2480473789808374</v>
+        <v>0.2443549906115526</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>47336</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>37583</v>
+        <v>37351</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>57423</v>
+        <v>58014</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.51896762023828</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4120412237684821</v>
+        <v>0.409495370351169</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6295514350500209</v>
+        <v>0.636039086670683</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>144</v>
@@ -1050,19 +1050,19 @@
         <v>79590</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>70204</v>
+        <v>70108</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>89600</v>
+        <v>87763</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5768279517077024</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5088032745028099</v>
+        <v>0.5081081530862923</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6493760353071134</v>
+        <v>0.6360644401912654</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>205</v>
@@ -1071,19 +1071,19 @@
         <v>126926</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>112893</v>
+        <v>113502</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>139494</v>
+        <v>140698</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5538009851751734</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4925750871562408</v>
+        <v>0.4952314721294701</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6086396376814356</v>
+        <v>0.6138928155507649</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>24682</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>15940</v>
+        <v>16309</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>36217</v>
+        <v>36326</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.270594948408663</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1747582724551101</v>
+        <v>0.1788025137026996</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.397065940931029</v>
+        <v>0.3982592883233015</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>41</v>
@@ -1121,19 +1121,19 @@
         <v>27870</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>21037</v>
+        <v>20699</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>37427</v>
+        <v>36215</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2019880305692251</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1524685593763</v>
+        <v>0.1500159213451881</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2712538759656365</v>
+        <v>0.2624692169232049</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>65</v>
@@ -1142,19 +1142,19 @@
         <v>52551</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>41789</v>
+        <v>41450</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>67239</v>
+        <v>66559</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2292918700196366</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1823344245248618</v>
+        <v>0.180855166855107</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2933788468720052</v>
+        <v>0.2904090269731989</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>19194</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12242</v>
+        <v>12115</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28109</v>
+        <v>27067</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.210437431353057</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1342102992872073</v>
+        <v>0.1328182424148978</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3081685368035941</v>
+        <v>0.2967442090132144</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -1192,19 +1192,19 @@
         <v>30519</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23012</v>
+        <v>23853</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38839</v>
+        <v>38599</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2211840177230726</v>
+        <v>0.2211840177230727</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1667787746644677</v>
+        <v>0.172872150189221</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2814847957728141</v>
+        <v>0.2797470102640766</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>70</v>
@@ -1213,19 +1213,19 @@
         <v>49713</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39687</v>
+        <v>39564</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>59942</v>
+        <v>61704</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.21690714480519</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1731612599720208</v>
+        <v>0.1726246903217636</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2615377440972808</v>
+        <v>0.2692245785107222</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>55681</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>46071</v>
+        <v>45134</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>63991</v>
+        <v>64475</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6782391852507568</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5611765186967584</v>
+        <v>0.5497693186831254</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.779459238508965</v>
+        <v>0.7853561646073995</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>79</v>
@@ -1338,19 +1338,19 @@
         <v>56995</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>48153</v>
+        <v>47591</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>65509</v>
+        <v>65986</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5290554182690532</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4469866818829283</v>
+        <v>0.4417690676290433</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6080953109141434</v>
+        <v>0.6125159144505278</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>132</v>
@@ -1359,19 +1359,19 @@
         <v>112676</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>98042</v>
+        <v>98119</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>125138</v>
+        <v>125232</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.5935754915586259</v>
+        <v>0.5935754915586258</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5164857398513919</v>
+        <v>0.5168883632084857</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6592228983878344</v>
+        <v>0.6597186237014431</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>13200</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7391</v>
+        <v>7430</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21686</v>
+        <v>21778</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.160791162392824</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09002693752673525</v>
+        <v>0.09049726745914817</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2641546595916488</v>
+        <v>0.265273902623378</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -1409,19 +1409,19 @@
         <v>22211</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15431</v>
+        <v>14913</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31327</v>
+        <v>30834</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2061725084910515</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.143242390180618</v>
+        <v>0.1384272964923555</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2907931670871975</v>
+        <v>0.2862224079927704</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>38</v>
@@ -1430,19 +1430,19 @@
         <v>35411</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25085</v>
+        <v>24999</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>47336</v>
+        <v>46912</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1865456560829326</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1321488654180233</v>
+        <v>0.1316932209084193</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2493666332360604</v>
+        <v>0.247128953572794</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>13215</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7407</v>
+        <v>7050</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23305</v>
+        <v>23045</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1609696523564192</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09021961234813546</v>
+        <v>0.08587341932363189</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2838768097773892</v>
+        <v>0.2807049272221226</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>39</v>
@@ -1480,19 +1480,19 @@
         <v>28524</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20876</v>
+        <v>21190</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>37501</v>
+        <v>36338</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2647720732398953</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1937819270359732</v>
+        <v>0.1966953586825181</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3481048353786802</v>
+        <v>0.3373068741285167</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>50</v>
@@ -1501,19 +1501,19 @@
         <v>41739</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>31411</v>
+        <v>30769</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>54741</v>
+        <v>53977</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2198788523584416</v>
+        <v>0.2198788523584415</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1654725061243214</v>
+        <v>0.1620887263510659</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2883770250985378</v>
+        <v>0.2843500739241617</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>54383</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44977</v>
+        <v>45067</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>62773</v>
+        <v>62750</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6120061962394915</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.50614863587559</v>
+        <v>0.5071678910695159</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7064132221953389</v>
+        <v>0.7061555304804229</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>142</v>
@@ -1626,19 +1626,19 @@
         <v>90802</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>80948</v>
+        <v>81253</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>99229</v>
+        <v>99988</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6438197112630512</v>
+        <v>0.6438197112630513</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5739532174962535</v>
+        <v>0.5761142116819588</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7035728090070521</v>
+        <v>0.7089554801366993</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>209</v>
@@ -1647,19 +1647,19 @@
         <v>145185</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>132639</v>
+        <v>133007</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>157802</v>
+        <v>157323</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6315229617060177</v>
+        <v>0.6315229617060178</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5769503856739839</v>
+        <v>0.5785494872860126</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6864039625188366</v>
+        <v>0.6843201620465884</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>17503</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11579</v>
+        <v>11817</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24442</v>
+        <v>25622</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1969668184351959</v>
+        <v>0.196966818435196</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1302996562083448</v>
+        <v>0.1329812357495121</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2750592787670275</v>
+        <v>0.2883434688616436</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>20</v>
@@ -1697,19 +1697,19 @@
         <v>12120</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7431</v>
+        <v>7652</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18158</v>
+        <v>18211</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08593851663060417</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05269105398527322</v>
+        <v>0.05425362490983631</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1287500231989489</v>
+        <v>0.1291256509392784</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>41</v>
@@ -1718,19 +1718,19 @@
         <v>29623</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>21538</v>
+        <v>22134</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>39393</v>
+        <v>39685</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.128853837997096</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09368747961524192</v>
+        <v>0.0962790123855552</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.171352430952921</v>
+        <v>0.1726203927041428</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>16975</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10465</v>
+        <v>10347</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>25007</v>
+        <v>24861</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1910269853253126</v>
+        <v>0.1910269853253127</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1177716643761752</v>
+        <v>0.1164421813597212</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2814205232084559</v>
+        <v>0.2797744008031544</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>60</v>
@@ -1768,19 +1768,19 @@
         <v>38114</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>30709</v>
+        <v>29872</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>47907</v>
+        <v>47272</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.2702417721063445</v>
+        <v>0.2702417721063446</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2177389979551116</v>
+        <v>0.2118067174032376</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3396827435337895</v>
+        <v>0.3351735235432891</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>79</v>
@@ -1789,19 +1789,19 @@
         <v>55089</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>45142</v>
+        <v>44725</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>66133</v>
+        <v>65927</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2396232002968862</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.196355996504696</v>
+        <v>0.1945433998052992</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.287662035446589</v>
+        <v>0.2867657726282493</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>202325</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>183785</v>
+        <v>184380</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>218186</v>
+        <v>219518</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.625757670110876</v>
+        <v>0.6257576701108759</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5684166571343967</v>
+        <v>0.5702573418365061</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6748139081191932</v>
+        <v>0.6789327703707468</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>504</v>
@@ -1914,19 +1914,19 @@
         <v>286472</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>267528</v>
+        <v>269323</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>305138</v>
+        <v>303470</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6050140522294998</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5650065264885323</v>
+        <v>0.5687975878424884</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6444368257573493</v>
+        <v>0.6409145689365598</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>747</v>
@@ -1935,19 +1935,19 @@
         <v>488797</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>464381</v>
+        <v>462805</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>514095</v>
+        <v>513832</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6134312044840989</v>
+        <v>0.6134312044840988</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5827895490536457</v>
+        <v>0.5808118052651634</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6451806488846287</v>
+        <v>0.6448504149926885</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>63264</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>50095</v>
+        <v>50025</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>81557</v>
+        <v>77783</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1956643521795515</v>
+        <v>0.1956643521795514</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1549340881995914</v>
+        <v>0.1547200438038029</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2522434741588888</v>
+        <v>0.2405698073847359</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>101</v>
@@ -1985,19 +1985,19 @@
         <v>70395</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>58059</v>
+        <v>58903</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>84694</v>
+        <v>85509</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1486698465898207</v>
+        <v>0.1486698465898208</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1226174628031345</v>
+        <v>0.1243994241074645</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1788695491584186</v>
+        <v>0.1805899125419122</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>169</v>
@@ -2006,19 +2006,19 @@
         <v>133658</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>114350</v>
+        <v>113328</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>154488</v>
+        <v>153278</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1677388398069349</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.143506995879964</v>
+        <v>0.1422242017153046</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1938798810677652</v>
+        <v>0.1923606226021487</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>57739</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44610</v>
+        <v>43831</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>72805</v>
+        <v>72442</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1785779777095725</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.137971507982403</v>
+        <v>0.1355624505609156</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.225173736584579</v>
+        <v>0.2240512276767874</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>183</v>
@@ -2056,19 +2056,19 @@
         <v>116630</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>101208</v>
+        <v>101461</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>133015</v>
+        <v>132482</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2463161011806794</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2137467650220538</v>
+        <v>0.2142810570099743</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2809219463270196</v>
+        <v>0.2797961500991759</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>243</v>
@@ -2077,19 +2077,19 @@
         <v>174369</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>154177</v>
+        <v>154580</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>195317</v>
+        <v>196486</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2188299557089662</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1934890021919756</v>
+        <v>0.1939957169627997</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2451193934224185</v>
+        <v>0.246586000434137</v>
       </c>
     </row>
     <row r="23">
